--- a/URS/DbLayouts/L5-管理性作業/NegTrans.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/NegTrans.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30481E4-9754-4403-A468-417C0B28ABA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="工作表1" sheetId="4" r:id="rId3"/>
     <sheet name="金額計算" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -445,47 +446,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TxStatusBetween</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TxStatus&gt;= , AND TxStatus&lt;=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TxStatusDateEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TxStatus=  , AND RepayDate=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RepayDateBetween</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RepayDate&gt;= , AND RepayDate&lt;=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RepayDateEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RepayDate=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ExportDateBetween</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ExportDate&gt;= , AND ExportDate&lt;=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExportDateEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -551,10 +528,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ExportAcDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>會計日期</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -704,10 +677,6 @@
   <si>
     <t>上次TxTemp</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackFunc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ThisEntdy = , AND ThisKinbr = , AND ThisTlrNo = , AND ThisTxtNo = , AND ThisSeqNo = </t>
@@ -720,6 +689,87 @@
   <si>
     <t>ReturnAmt</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>依債權分配比率計算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金額-退還金額-新壽攤分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累溢繳款(交易前)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收金額，轉入金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金金額</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>退還金額</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢收抵繳金額</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉入溢收金額</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5707最大債權撥付產檔時寫入[L5074撥付製檔]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5708最大債權撥付出帳時寫入[L5074撥付出帳]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款金額 = 本金+利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5702暫收入帳時寫入[L5074入帳還款]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收抵繳金額</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款金額減暫收金額，為正時</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收金額(減退還金額)減還款金額，為正時</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收金額減還款金額，為負時
+溢繳款=轉入溢收金額 - 溢收抵繳金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApprAmt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>債務協商交易檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>結清時才有，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>結清(退還)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>0:正常-匯入款＋溢收款 &gt;= 期款
@@ -728,97 +778,47 @@
 3:提前還本-匯入款 &gt;= 5期期款
 4:結清-匯入款＋溢收款 &gt;=最後一期期款
 5:提前清償-匯入款＋溢收款 &gt;= 剩餘期款
-6:待處理(批次用)
 9:未處理
 ※入帳訂正需在撥付產擋前，依反向順序訂正</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>依債權分配比率計算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易金額-退還金額-新壽攤分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累溢繳款(交易前)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫收金額，轉入金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本金金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>退還金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>溢收抵繳金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>轉入溢收金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>L5707最大債權撥付產檔時寫入[L5074撥付製檔]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L5708最大債權撥付出帳時寫入[L5074撥付出帳]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>還款金額 = 本金+利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L5702暫收入帳時寫入[L5074入帳還款]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫收抵繳金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>還款金額減暫收金額，為正時</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫收金額(減退還金額)減還款金額，為正時</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫收金額減還款金額，為負時
-溢繳款=轉入溢收金額 - 溢收抵繳金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApprAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>債務協商交易檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>結清時才有，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>結清(退還)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>txStatusBetween</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>txStatusDateEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repayDateBetween</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repayDateEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDateBetween</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDateEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportAcDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>backFunc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -1183,7 +1183,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1274,6 +1274,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1309,6 +1326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1484,11 +1518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1511,7 +1545,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1622,10 +1656,10 @@
         <v>39</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E9" s="23">
         <v>8</v>
@@ -1639,7 +1673,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>37</v>
@@ -1673,7 +1707,7 @@
         <v>100</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>36</v>
@@ -1710,10 +1744,10 @@
         <v>55</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E14" s="23">
         <v>8</v>
@@ -1724,10 +1758,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>36</v>
@@ -1739,7 +1773,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="145.80000000000001">
+    <row r="16" spans="1:7" ht="129.6">
       <c r="A16" s="18">
         <v>8</v>
       </c>
@@ -1747,7 +1781,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>37</v>
@@ -1756,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1764,10 +1798,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>36</v>
@@ -1779,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1790,7 +1824,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>36</v>
@@ -1807,10 +1841,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>36</v>
@@ -1822,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1833,7 +1867,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>36</v>
@@ -1845,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1853,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>30</v>
@@ -1868,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1882,13 +1916,13 @@
         <v>31</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E22" s="23">
         <v>8</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1896,19 +1930,19 @@
         <v>15</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E23" s="23">
         <v>8</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1919,7 +1953,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>36</v>
@@ -1931,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32.4">
@@ -1939,10 +1973,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>36</v>
@@ -1954,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1965,7 +1999,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>36</v>
@@ -1977,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2009,7 +2043,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>36</v>
@@ -2021,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2029,13 +2063,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E29" s="23">
         <v>8</v>
@@ -2049,13 +2083,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E30" s="23">
         <v>8</v>
@@ -2069,7 +2103,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>91</v>
@@ -2087,19 +2121,19 @@
         <v>24</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E32" s="23">
         <v>8</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2107,10 +2141,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>36</v>
@@ -2127,10 +2161,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>36</v>
@@ -2147,10 +2181,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>36</v>
@@ -2164,10 +2198,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>36</v>
@@ -2179,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2187,19 +2221,19 @@
         <v>29</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E37" s="46">
         <v>8</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2207,19 +2241,19 @@
         <v>30</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E38" s="47">
         <v>4</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2227,19 +2261,19 @@
         <v>31</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E39" s="47">
         <v>6</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2247,19 +2281,19 @@
         <v>32</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E40" s="47">
         <v>8</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2267,19 +2301,19 @@
         <v>33</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E41" s="47">
         <v>30</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2287,19 +2321,19 @@
         <v>34</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E42" s="46">
         <v>8</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2307,19 +2341,19 @@
         <v>35</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E43" s="47">
         <v>4</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2327,19 +2361,19 @@
         <v>36</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E44" s="47">
         <v>6</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2347,19 +2381,19 @@
         <v>37</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E45" s="47">
         <v>8</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2367,19 +2401,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E46" s="47">
         <v>30</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2472,12 +2506,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2518,7 +2552,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2556,58 +2590,58 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>102</v>
@@ -2615,13 +2649,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +2666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2647,10 +2681,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
@@ -2678,20 +2712,20 @@
         <v>24</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>27</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L1" s="32"/>
       <c r="M1" s="36" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="2:15">
@@ -2723,7 +2757,7 @@
         <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O2" t="s">
         <v>73</v>
@@ -2886,7 +2920,7 @@
     </row>
     <row r="7" spans="2:15">
       <c r="C7" s="33" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -2977,7 +3011,7 @@
         <v>63</v>
       </c>
       <c r="M17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="32.4">
@@ -3160,7 +3194,7 @@
         <v>63</v>
       </c>
       <c r="M24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="32.4">
@@ -3275,7 +3309,7 @@
         <v>96</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>

--- a/URS/DbLayouts/L5-管理性作業/NegTrans.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/NegTrans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30481E4-9754-4403-A468-417C0B28ABA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11306468-6CF9-47BE-BA92-AB54A5E94A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="208">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -814,12 +814,20 @@
     <t>backFunc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>findbyTitaTxTno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate =, AND TitaTxtNo =</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -933,6 +941,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1023,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,6 +1194,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1521,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2507,11 +2525,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2656,6 +2674,14 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
